--- a/src/course.xlsx
+++ b/src/course.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FDC7C6-D468-48BB-BB8F-FA18B7FD4542}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295A6E7C-8AE9-4389-8349-AF699426E575}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="4755" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Linux基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,42 @@
   </si>
   <si>
     <t>imooc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imooc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java进阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux进阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通俗易懂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,51 +412,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E1">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>240</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>300</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>240</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E5">
         <v>300</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
     </row>
